--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3636.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3636.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.303549146321432</v>
+        <v>1.18227207660675</v>
       </c>
       <c r="B1">
-        <v>1.806920185268686</v>
+        <v>1.662708640098572</v>
       </c>
       <c r="C1">
-        <v>2.03139733971505</v>
+        <v>2.920659303665161</v>
       </c>
       <c r="D1">
-        <v>2.279344367706168</v>
+        <v>1.508668541908264</v>
       </c>
       <c r="E1">
-        <v>2.728092226332458</v>
+        <v>0.8206518888473511</v>
       </c>
     </row>
   </sheetData>
